--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H2">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N2">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O2">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P2">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q2">
-        <v>80.82522817640816</v>
+        <v>84.18321228755555</v>
       </c>
       <c r="R2">
-        <v>80.82522817640816</v>
+        <v>757.6489105879999</v>
       </c>
       <c r="S2">
-        <v>0.02543140232071869</v>
+        <v>0.02457066544314751</v>
       </c>
       <c r="T2">
-        <v>0.02543140232071869</v>
+        <v>0.0245706654431475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H3">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N3">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O3">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P3">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q3">
-        <v>132.8074562270264</v>
+        <v>135.757848496616</v>
       </c>
       <c r="R3">
-        <v>132.8074562270264</v>
+        <v>1221.820636469544</v>
       </c>
       <c r="S3">
-        <v>0.04178744590895678</v>
+        <v>0.03962382268447784</v>
       </c>
       <c r="T3">
-        <v>0.04178744590895678</v>
+        <v>0.03962382268447783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H4">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N4">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O4">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P4">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q4">
-        <v>72.6370824723502</v>
+        <v>74.23005325656888</v>
       </c>
       <c r="R4">
-        <v>72.6370824723502</v>
+        <v>668.0704793091198</v>
       </c>
       <c r="S4">
-        <v>0.02285502818161859</v>
+        <v>0.02166562376075773</v>
       </c>
       <c r="T4">
-        <v>0.02285502818161859</v>
+        <v>0.02166562376075773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H5">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N5">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O5">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P5">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q5">
-        <v>69.31110059288068</v>
+        <v>73.03308191698223</v>
       </c>
       <c r="R5">
-        <v>69.31110059288068</v>
+        <v>657.29773725284</v>
       </c>
       <c r="S5">
-        <v>0.02180851850640188</v>
+        <v>0.02131626215372427</v>
       </c>
       <c r="T5">
-        <v>0.02180851850640188</v>
+        <v>0.02131626215372426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H6">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I6">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J6">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N6">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O6">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P6">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q6">
-        <v>14.93940131221788</v>
+        <v>16.50464262780267</v>
       </c>
       <c r="R6">
-        <v>14.93940131221788</v>
+        <v>148.541783650224</v>
       </c>
       <c r="S6">
-        <v>0.004700635355738869</v>
+        <v>0.004817231859497455</v>
       </c>
       <c r="T6">
-        <v>0.004700635355738869</v>
+        <v>0.004817231859497455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H7">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N7">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O7">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P7">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q7">
-        <v>429.1416327264552</v>
+        <v>444.3252723542222</v>
       </c>
       <c r="R7">
-        <v>429.1416327264552</v>
+        <v>3998.927451188</v>
       </c>
       <c r="S7">
-        <v>0.1350280569652897</v>
+        <v>0.1296858045480507</v>
       </c>
       <c r="T7">
-        <v>0.1350280569652897</v>
+        <v>0.1296858045480507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H8">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N8">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O8">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P8">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q8">
-        <v>705.1413264076492</v>
+        <v>716.540048405816</v>
       </c>
       <c r="R8">
-        <v>705.1413264076492</v>
+        <v>6448.860435652344</v>
       </c>
       <c r="S8">
-        <v>0.2218704873396507</v>
+        <v>0.2091374910458082</v>
       </c>
       <c r="T8">
-        <v>0.2218704873396507</v>
+        <v>0.2091374910458082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H9">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N9">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O9">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P9">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q9">
-        <v>385.6666646289671</v>
+        <v>391.7917567392356</v>
       </c>
       <c r="R9">
-        <v>385.6666646289671</v>
+        <v>3526.12581065312</v>
       </c>
       <c r="S9">
-        <v>0.1213487958049686</v>
+        <v>0.1143527779070726</v>
       </c>
       <c r="T9">
-        <v>0.1213487958049686</v>
+        <v>0.1143527779070726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H10">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J10">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N10">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O10">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P10">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q10">
-        <v>368.007360394664</v>
+        <v>385.4740527456489</v>
       </c>
       <c r="R10">
-        <v>368.007360394664</v>
+        <v>3469.26647471084</v>
       </c>
       <c r="S10">
-        <v>0.1157923516003655</v>
+        <v>0.1125088212917677</v>
       </c>
       <c r="T10">
-        <v>0.1157923516003655</v>
+        <v>0.1125088212917677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H11">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J11">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N11">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O11">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P11">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q11">
-        <v>79.32076674238517</v>
+        <v>87.11273461100267</v>
       </c>
       <c r="R11">
-        <v>79.32076674238517</v>
+        <v>784.0146114990241</v>
       </c>
       <c r="S11">
-        <v>0.02495802829050702</v>
+        <v>0.02542570899591404</v>
       </c>
       <c r="T11">
-        <v>0.02495802829050702</v>
+        <v>0.02542570899591405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H12">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N12">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O12">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P12">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q12">
-        <v>183.3178134347311</v>
+        <v>223.1702528168334</v>
       </c>
       <c r="R12">
-        <v>183.3178134347311</v>
+        <v>2008.5322753515</v>
       </c>
       <c r="S12">
-        <v>0.05768036999336157</v>
+        <v>0.0651369966745217</v>
       </c>
       <c r="T12">
-        <v>0.05768036999336157</v>
+        <v>0.06513699667452169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H13">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I13">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J13">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N13">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O13">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P13">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q13">
-        <v>301.2174915266557</v>
+        <v>359.8949546777731</v>
       </c>
       <c r="R13">
-        <v>301.2174915266557</v>
+        <v>3239.054592099957</v>
       </c>
       <c r="S13">
-        <v>0.09477713067920571</v>
+        <v>0.1050430161284247</v>
       </c>
       <c r="T13">
-        <v>0.09477713067920571</v>
+        <v>0.1050430161284247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H14">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I14">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J14">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N14">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O14">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P14">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q14">
-        <v>164.7464712879851</v>
+        <v>196.7843623653733</v>
       </c>
       <c r="R14">
-        <v>164.7464712879851</v>
+        <v>1771.05926128836</v>
       </c>
       <c r="S14">
-        <v>0.05183695594522809</v>
+        <v>0.05743571195176941</v>
       </c>
       <c r="T14">
-        <v>0.05183695594522809</v>
+        <v>0.0574357119517694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H15">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I15">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J15">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N15">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O15">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P15">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q15">
-        <v>157.2028894209826</v>
+        <v>193.6111834237384</v>
       </c>
       <c r="R15">
-        <v>157.2028894209826</v>
+        <v>1742.500650813645</v>
       </c>
       <c r="S15">
-        <v>0.04946339177810564</v>
+        <v>0.05650955201978877</v>
       </c>
       <c r="T15">
-        <v>0.04946339177810564</v>
+        <v>0.05650955201978877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H16">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I16">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J16">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N16">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O16">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P16">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q16">
-        <v>33.8837074063357</v>
+        <v>43.75391681795801</v>
       </c>
       <c r="R16">
-        <v>33.8837074063357</v>
+        <v>393.785251361622</v>
       </c>
       <c r="S16">
-        <v>0.0106614013298828</v>
+        <v>0.01277051353527731</v>
       </c>
       <c r="T16">
-        <v>0.0106614013298828</v>
+        <v>0.01277051353527731</v>
       </c>
     </row>
   </sheetData>
